--- a/1_1_1_Flanker/conditions_mixed.xlsx
+++ b/1_1_1_Flanker/conditions_mixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machanghong/Desktop/Flanker_v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen-nanwu/Documents/认知实验工具箱/认知实验工具箱【发布后修改】/CEST_Github_0104_v2/【有改动】1_1_1_Flanker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7536B-666C-A14A-B1BE-4C63D39AAF16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603B882-1043-214B-8403-E7C99A421720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0D9F31B7-C287-5D4A-8A99-DD5598CF7F0B}"/>
+    <workbookView xWindow="-900" yWindow="2140" windowWidth="28800" windowHeight="16400" xr2:uid="{0D9F31B7-C287-5D4A-8A99-DD5598CF7F0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>img/left_arrow.png</t>
   </si>
@@ -84,18 +84,37 @@
   </si>
   <si>
     <t>img/incongruent_left.png</t>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congruent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incongruent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A3017-0C61-7D47-9FA1-0AE2D6A32BCE}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
@@ -449,7 +468,7 @@
     <col min="4" max="4" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,8 +484,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,8 +504,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -499,8 +524,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -516,8 +544,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -533,8 +564,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>